--- a/2022年度/行事/⑦定期総会/町会名簿2022.xlsx
+++ b/2022年度/行事/⑦定期総会/町会名簿2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\github\neighborhood\2022年度\行事\⑦定期総会\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C7A91B-B610-49D6-9FD1-FF0096C7D8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A6C975-151B-4737-B32E-5981F737BF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="715" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="27495" windowHeight="14955" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="13" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="946">
   <si>
     <t>備　　考</t>
   </si>
@@ -932,9 +932,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>町会　会員名簿</t>
-  </si>
-  <si>
     <t>千葉県船橋市</t>
     <rPh sb="0" eb="3">
       <t>チバケン</t>
@@ -1064,10 +1061,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>４３８－３８７５</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>４３０－７１９０</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2957,10 +2950,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>金杉３－１９－６</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>金杉３－１９－８</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -4536,6 +4525,22 @@
     <rPh sb="3" eb="5">
       <t>トモユキ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>090-1165-3732</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金杉１－８－３</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>４３８－３８５３</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>町会　会員名簿</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -5418,6 +5423,27 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5444,27 +5470,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5865,8 +5870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5897,13 +5902,13 @@
     </row>
     <row r="5" spans="2:9" ht="55.5" x14ac:dyDescent="0.15">
       <c r="B5" s="16"/>
-      <c r="C5" s="96" t="s">
-        <v>262</v>
-      </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
+      <c r="C5" s="103" t="s">
+        <v>945</v>
+      </c>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5911,14 +5916,14 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="2:9" ht="21" x14ac:dyDescent="0.15">
-      <c r="B7" s="92" t="s">
-        <v>914</v>
-      </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
+      <c r="B7" s="99" t="s">
+        <v>911</v>
+      </c>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
       <c r="H7" s="11"/>
       <c r="I7" s="3"/>
     </row>
@@ -5991,14 +5996,14 @@
       <c r="H24" s="10"/>
     </row>
     <row r="25" spans="2:9" ht="21" x14ac:dyDescent="0.15">
-      <c r="B25" s="92" t="s">
-        <v>263</v>
-      </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
+      <c r="B25" s="99" t="s">
+        <v>262</v>
+      </c>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
       <c r="H25" s="11"/>
       <c r="I25" s="3"/>
     </row>
@@ -6007,14 +6012,14 @@
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="2:9" ht="42" x14ac:dyDescent="0.15">
-      <c r="B27" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
+      <c r="B27" s="101" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
       <c r="H27" s="12"/>
       <c r="I27" s="4"/>
     </row>
@@ -6052,7 +6057,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -6064,8 +6069,8 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView view="pageLayout" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6089,10 +6094,10 @@
         <v>260</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E2" s="49" t="s">
         <v>0</v>
@@ -6103,10 +6108,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>171</v>
@@ -6120,16 +6125,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D4" s="53" t="s">
         <v>173</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6137,10 +6142,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>174</v>
@@ -6152,16 +6157,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D6" s="53" t="s">
         <v>175</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6169,16 +6174,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6186,13 +6191,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E8" s="53"/>
     </row>
@@ -6201,10 +6206,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D9" s="53" t="s">
         <v>176</v>
@@ -6218,13 +6223,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E10" s="53" t="s">
         <v>177</v>
@@ -6235,10 +6240,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D11" s="53" t="s">
         <v>178</v>
@@ -6252,10 +6257,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D12" s="53" t="s">
         <v>180</v>
@@ -6267,10 +6272,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D13" s="53" t="s">
         <v>181</v>
@@ -6284,16 +6289,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>182</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6301,16 +6306,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>183</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6318,13 +6323,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E16" s="58"/>
     </row>
@@ -6334,9 +6339,9 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- 8 -</oddFooter>
+    <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- 9 -</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6348,8 +6353,8 @@
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6364,7 +6369,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="48" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6373,13 +6378,13 @@
         <v>260</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6387,16 +6392,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>192</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6404,10 +6409,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>193</v>
@@ -6421,16 +6426,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6438,13 +6443,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E6" s="28"/>
     </row>
@@ -6453,13 +6458,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E7" s="28"/>
     </row>
@@ -6468,13 +6473,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>713</v>
-      </c>
-      <c r="D8" s="101" t="s">
-        <v>344</v>
+        <v>710</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>342</v>
       </c>
       <c r="E8" s="28"/>
     </row>
@@ -6483,13 +6488,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E9" s="28"/>
     </row>
@@ -6498,13 +6503,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E10" s="28"/>
     </row>
@@ -6513,13 +6518,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E11" s="28"/>
     </row>
@@ -6528,13 +6533,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E12" s="28"/>
     </row>
@@ -6543,13 +6548,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E13" s="28"/>
     </row>
@@ -6558,13 +6563,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>721</v>
-      </c>
-      <c r="D14" s="101" t="s">
-        <v>336</v>
+        <v>718</v>
+      </c>
+      <c r="D14" s="92" t="s">
+        <v>334</v>
       </c>
       <c r="E14" s="28"/>
     </row>
@@ -6573,10 +6578,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -6586,13 +6591,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E16" s="55"/>
     </row>
@@ -6601,13 +6606,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>899</v>
-      </c>
-      <c r="D17" s="101" t="s">
-        <v>898</v>
+        <v>896</v>
+      </c>
+      <c r="D17" s="92" t="s">
+        <v>895</v>
       </c>
       <c r="E17" s="55"/>
     </row>
@@ -6616,10 +6621,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>195</v>
@@ -6633,10 +6638,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>196</v>
@@ -6648,10 +6653,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>197</v>
@@ -6663,10 +6668,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>198</v>
@@ -6680,10 +6685,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>199</v>
@@ -6695,10 +6700,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>200</v>
@@ -6712,13 +6717,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="86" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E24" s="86"/>
     </row>
@@ -6727,13 +6732,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="86" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="D25" s="104" t="s">
-        <v>337</v>
+        <v>728</v>
+      </c>
+      <c r="D25" s="95" t="s">
+        <v>335</v>
       </c>
       <c r="E25" s="86"/>
     </row>
@@ -6742,13 +6747,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="86" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D26" s="86" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E26" s="86"/>
     </row>
@@ -6757,13 +6762,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="86" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>901</v>
-      </c>
-      <c r="D27" s="104" t="s">
-        <v>903</v>
+        <v>898</v>
+      </c>
+      <c r="D27" s="95" t="s">
+        <v>900</v>
       </c>
       <c r="E27" s="86"/>
     </row>
@@ -6778,7 +6783,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- 10 -</oddFooter>
   </headerFooter>
@@ -6792,7 +6797,7 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -6817,13 +6822,13 @@
         <v>260</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6831,10 +6836,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>201</v>
@@ -6848,10 +6853,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>203</v>
@@ -6863,10 +6868,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -6876,10 +6881,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>204</v>
@@ -6891,10 +6896,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>205</v>
@@ -6906,10 +6911,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>206</v>
@@ -6921,10 +6926,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>207</v>
@@ -6938,10 +6943,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>208</v>
@@ -6953,10 +6958,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>209</v>
@@ -6970,10 +6975,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>210</v>
@@ -6985,13 +6990,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E13" s="28"/>
     </row>
@@ -7000,10 +7005,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>211</v>
@@ -7017,16 +7022,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>212</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7034,13 +7039,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>746</v>
-      </c>
-      <c r="D16" s="101" t="s">
-        <v>871</v>
+        <v>743</v>
+      </c>
+      <c r="D16" s="92" t="s">
+        <v>868</v>
       </c>
       <c r="E16" s="28"/>
     </row>
@@ -7049,10 +7054,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>213</v>
@@ -7064,10 +7069,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>214</v>
@@ -7079,13 +7084,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E19" s="28"/>
     </row>
@@ -7094,10 +7099,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -7107,13 +7112,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>751</v>
-      </c>
-      <c r="D21" s="102" t="s">
-        <v>872</v>
+        <v>748</v>
+      </c>
+      <c r="D21" s="93" t="s">
+        <v>869</v>
       </c>
       <c r="E21" s="28"/>
     </row>
@@ -7122,10 +7127,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
@@ -7135,13 +7140,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D23" s="84" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E23" s="84"/>
     </row>
@@ -7150,13 +7155,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>848</v>
-      </c>
-      <c r="D24" s="103" t="s">
-        <v>849</v>
+        <v>845</v>
+      </c>
+      <c r="D24" s="94" t="s">
+        <v>846</v>
       </c>
       <c r="E24" s="85"/>
     </row>
@@ -7165,10 +7170,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D25" s="57"/>
       <c r="E25" s="87"/>
@@ -7187,7 +7192,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- 11 -</oddFooter>
   </headerFooter>
@@ -7201,7 +7206,7 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -7226,13 +7231,13 @@
         <v>260</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7240,13 +7245,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E3" s="28"/>
     </row>
@@ -7255,10 +7260,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>215</v>
@@ -7270,16 +7275,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>216</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7287,16 +7292,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>217</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7304,10 +7309,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>218</v>
@@ -7321,16 +7326,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D8" s="53" t="s">
         <v>115</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7338,10 +7343,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>220</v>
@@ -7353,13 +7358,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E10" s="28"/>
     </row>
@@ -7368,10 +7373,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>221</v>
@@ -7383,10 +7388,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>222</v>
@@ -7398,10 +7403,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>223</v>
@@ -7413,10 +7418,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>224</v>
@@ -7430,10 +7435,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>225</v>
@@ -7445,10 +7450,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>226</v>
@@ -7462,10 +7467,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>227</v>
@@ -7479,10 +7484,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>228</v>
@@ -7494,10 +7499,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>229</v>
@@ -7509,10 +7514,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>230</v>
@@ -7524,13 +7529,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E21" s="52"/>
     </row>
@@ -7539,10 +7544,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>231</v>
@@ -7554,10 +7559,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>232</v>
@@ -7569,10 +7574,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>233</v>
@@ -7584,16 +7589,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D25" s="50" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E25" s="50" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7601,16 +7606,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>234</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7618,10 +7623,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>235</v>
@@ -7635,10 +7640,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>236</v>
@@ -7665,7 +7670,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- 12 -</oddFooter>
   </headerFooter>
@@ -7679,8 +7684,8 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView view="pageLayout" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7704,10 +7709,10 @@
         <v>260</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E2" s="49" t="s">
         <v>0</v>
@@ -7718,10 +7723,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>184</v>
@@ -7735,10 +7740,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>185</v>
@@ -7752,16 +7757,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>186</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7769,10 +7774,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>187</v>
@@ -7786,10 +7791,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28" t="s">
@@ -7801,10 +7806,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>188</v>
@@ -7816,10 +7821,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>189</v>
@@ -7831,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>190</v>
@@ -7846,13 +7851,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E11" s="28"/>
     </row>
@@ -7861,10 +7866,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>191</v>
@@ -7876,13 +7881,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E13" s="55"/>
     </row>
@@ -7891,16 +7896,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7908,13 +7913,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E15" s="28"/>
     </row>
@@ -7923,13 +7928,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>822</v>
-      </c>
-      <c r="D16" s="101" t="s">
-        <v>823</v>
+        <v>819</v>
+      </c>
+      <c r="D16" s="92" t="s">
+        <v>820</v>
       </c>
       <c r="E16" s="28"/>
     </row>
@@ -7938,16 +7943,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7955,10 +7960,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>194</v>
@@ -7970,13 +7975,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E19" s="28"/>
     </row>
@@ -7985,10 +7990,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -7998,13 +8003,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>706</v>
-      </c>
-      <c r="D21" s="101" t="s">
-        <v>865</v>
+        <v>703</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>862</v>
       </c>
       <c r="E21" s="28"/>
     </row>
@@ -8013,14 +8018,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="28" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8050,9 +8055,9 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- 9 -</oddFooter>
+    <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- 13 -</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -8077,20 +8082,20 @@
   <sheetData>
     <row r="8" spans="3:5" ht="25.5" x14ac:dyDescent="0.15">
       <c r="C8" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="3:5" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="3:5" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="C11" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>266</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8119,7 +8124,7 @@
     </row>
     <row r="14" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D14" s="18">
         <f>COUNTA('３班'!A:A)</f>
@@ -8155,7 +8160,7 @@
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="22" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D17" s="18">
         <f>COUNTA('６班'!A:A)</f>
@@ -8191,7 +8196,7 @@
     </row>
     <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="22" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D20" s="18">
         <f>COUNTA('９班'!A:A)</f>
@@ -8238,10 +8243,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="97" t="s">
-        <v>269</v>
-      </c>
-      <c r="D24" s="99">
+      <c r="C24" s="104" t="s">
+        <v>268</v>
+      </c>
+      <c r="D24" s="106">
         <f>SUM(D12:D23)</f>
         <v>273</v>
       </c>
@@ -8251,23 +8256,23 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="98"/>
-      <c r="D25" s="100"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="107"/>
       <c r="E25" s="34">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B26" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="32" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B27" s="38"/>
       <c r="C27" s="32"/>
@@ -8277,7 +8282,7 @@
     </row>
     <row r="28" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="32" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B28" s="38"/>
       <c r="C28" s="32"/>
@@ -8342,7 +8347,7 @@
   </sheetPr>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -8368,13 +8373,13 @@
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="49"/>
       <c r="B2" s="49" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E2" s="49" t="s">
         <v>0</v>
@@ -8385,16 +8390,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8402,16 +8407,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="D4" s="101" t="s">
-        <v>857</v>
+        <v>574</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>854</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8419,16 +8424,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8436,10 +8441,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D6" s="53" t="s">
         <v>3</v>
@@ -8451,16 +8456,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8468,10 +8473,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D8" s="53" t="s">
         <v>6</v>
@@ -8483,10 +8488,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D9" s="53" t="s">
         <v>7</v>
@@ -8498,10 +8503,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D10" s="53" t="s">
         <v>8</v>
@@ -8513,16 +8518,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D11" s="53" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8530,16 +8535,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8547,16 +8552,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D13" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8564,10 +8569,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>11</v>
@@ -8579,16 +8584,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8596,16 +8601,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D16" s="53" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8613,10 +8618,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D17" s="53" t="s">
         <v>14</v>
@@ -8630,10 +8635,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D18" s="53" t="s">
         <v>15</v>
@@ -8647,10 +8652,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D19" s="53" t="s">
         <v>16</v>
@@ -8664,10 +8669,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D20" s="53" t="s">
         <v>17</v>
@@ -8681,13 +8686,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="53" t="s">
+        <v>821</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>591</v>
+      </c>
+      <c r="D21" s="53" t="s">
         <v>824</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>593</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>827</v>
       </c>
       <c r="E21" s="53" t="s">
         <v>19</v>
@@ -8699,7 +8704,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- 1 -</oddFooter>
   </headerFooter>
@@ -8714,8 +8719,8 @@
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8740,13 +8745,13 @@
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="35"/>
       <c r="B2" s="72" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>0</v>
@@ -8757,7 +8762,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>20</v>
@@ -8766,7 +8771,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8774,7 +8779,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>22</v>
@@ -8791,16 +8796,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8808,7 +8813,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>26</v>
@@ -8823,7 +8828,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>28</v>
@@ -8838,7 +8843,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>30</v>
@@ -8853,7 +8858,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>32</v>
@@ -8862,7 +8867,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8870,7 +8875,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>34</v>
@@ -8887,7 +8892,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>37</v>
@@ -8896,7 +8901,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8904,7 +8909,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>39</v>
@@ -8913,7 +8918,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8921,13 +8926,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="E13" s="28" t="s">
         <v>4</v>
@@ -8938,7 +8943,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>41</v>
@@ -8953,13 +8958,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="89" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E15" s="90"/>
     </row>
@@ -8968,7 +8973,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>44</v>
@@ -8985,7 +8990,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>46</v>
@@ -9002,7 +9007,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>48</v>
@@ -9019,13 +9024,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="101" t="s">
-        <v>867</v>
+      <c r="D19" s="92" t="s">
+        <v>864</v>
       </c>
       <c r="E19" s="28"/>
     </row>
@@ -9034,7 +9039,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>51</v>
@@ -9051,7 +9056,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>53</v>
@@ -9060,7 +9065,7 @@
         <v>54</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9068,7 +9073,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>55</v>
@@ -9077,7 +9082,7 @@
         <v>56</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9085,7 +9090,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>57</v>
@@ -9102,7 +9107,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>60</v>
@@ -9117,7 +9122,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>60</v>
@@ -9134,12 +9139,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="28"/>
+      <c r="D26" s="92" t="s">
+        <v>942</v>
+      </c>
       <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9147,7 +9154,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>64</v>
@@ -9162,7 +9169,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>66</v>
@@ -9177,7 +9184,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C29" s="28" t="s">
         <v>68</v>
@@ -9186,7 +9193,7 @@
         <v>69</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9194,7 +9201,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C30" s="50" t="s">
         <v>70</v>
@@ -9211,7 +9218,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>254</v>
@@ -9228,7 +9235,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>72</v>
@@ -9245,7 +9252,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>256</v>
@@ -9262,13 +9269,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E34" s="27"/>
     </row>
@@ -9278,7 +9285,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- 2 -</oddFooter>
   </headerFooter>
@@ -9292,8 +9299,8 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView view="pageLayout" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9309,7 +9316,7 @@
     <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="47"/>
       <c r="B1" s="48" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
@@ -9321,10 +9328,10 @@
         <v>260</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E2" s="49" t="s">
         <v>0</v>
@@ -9335,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>75</v>
@@ -9352,7 +9359,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>77</v>
@@ -9361,7 +9368,7 @@
         <v>78</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9369,13 +9376,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>79</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>59</v>
@@ -9386,7 +9393,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>80</v>
@@ -9395,7 +9402,7 @@
         <v>81</v>
       </c>
       <c r="E6" s="78" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9403,7 +9410,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>82</v>
@@ -9412,7 +9419,7 @@
         <v>83</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9420,7 +9427,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>84</v>
@@ -9429,7 +9436,7 @@
         <v>85</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9437,7 +9444,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>86</v>
@@ -9454,7 +9461,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>89</v>
@@ -9471,7 +9478,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>91</v>
@@ -9480,7 +9487,7 @@
         <v>92</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9488,7 +9495,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>93</v>
@@ -9505,7 +9512,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>95</v>
@@ -9514,7 +9521,7 @@
         <v>96</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9522,7 +9529,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>97</v>
@@ -9539,7 +9546,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>99</v>
@@ -9548,135 +9555,135 @@
         <v>100</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="49">
         <v>14</v>
       </c>
-      <c r="B16" s="53" t="s">
-        <v>842</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>642</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>843</v>
-      </c>
+      <c r="B16" s="79" t="s">
+        <v>815</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="E16" s="28"/>
     </row>
     <row r="17" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="49">
         <v>15</v>
       </c>
-      <c r="B17" s="79" t="s">
-        <v>818</v>
+      <c r="B17" s="28" t="s">
+        <v>419</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>297</v>
+        <v>101</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="E17" s="28"/>
+        <v>102</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="49">
         <v>16</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>359</v>
-      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="49">
         <v>17</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+        <v>103</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="49">
         <v>18</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="49">
         <v>19</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>358</v>
-      </c>
+      <c r="B21" s="53" t="s">
+        <v>423</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>592</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="53"/>
     </row>
     <row r="22" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="49">
         <v>20</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="53"/>
+        <v>108</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="49">
         <v>21</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9684,16 +9691,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>361</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9701,16 +9708,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E25" s="53" t="s">
-        <v>253</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9718,16 +9725,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>429</v>
+        <v>839</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>598</v>
+        <v>943</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>111</v>
+        <v>944</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>88</v>
+        <v>840</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9735,10 +9742,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D27" s="53" t="s">
         <v>112</v>
@@ -9750,10 +9757,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D28" s="53" t="s">
         <v>113</v>
@@ -9765,16 +9772,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="53" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C29" s="53" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D29" s="53" t="s">
         <v>114</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9782,10 +9789,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C30" s="69" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>116</v>
@@ -9797,10 +9804,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C31" s="69" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>118</v>
@@ -9815,7 +9822,7 @@
         <v>119</v>
       </c>
       <c r="C32" s="69" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D32" s="27" t="s">
         <v>120</v>
@@ -9830,7 +9837,7 @@
         <v>258</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D33" s="27" t="s">
         <v>121</v>
@@ -9845,7 +9852,7 @@
         <v>259</v>
       </c>
       <c r="C34" s="69" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D34" s="27" t="s">
         <v>122</v>
@@ -9862,7 +9869,7 @@
         <v>123</v>
       </c>
       <c r="C35" s="80" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>124</v>
@@ -9876,20 +9883,20 @@
         <v>34</v>
       </c>
       <c r="B36" s="81" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C36" s="81" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D36" s="81" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E36" s="82"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- 3 -</oddFooter>
   </headerFooter>
@@ -9919,7 +9926,7 @@
     <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="41"/>
       <c r="B1" s="43" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
@@ -9931,13 +9938,13 @@
         <v>260</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -9945,10 +9952,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>238</v>
@@ -9960,13 +9967,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E4" s="29"/>
     </row>
@@ -9975,13 +9982,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E5" s="29"/>
       <c r="J5" s="41"/>
@@ -9991,10 +9998,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>239</v>
@@ -10008,10 +10015,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D7" s="44" t="s">
         <v>241</v>
@@ -10157,9 +10164,9 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- 13 -</oddFooter>
+    <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- 4 -</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -10171,7 +10178,7 @@
   </sheetPr>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D26" activeCellId="2" sqref="D12 D25 D26"/>
     </sheetView>
   </sheetViews>
@@ -10196,10 +10203,10 @@
         <v>261</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E2" s="49" t="s">
         <v>0</v>
@@ -10210,10 +10217,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>125</v>
@@ -10227,10 +10234,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D4" s="53" t="s">
         <v>126</v>
@@ -10244,13 +10251,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E5" s="53" t="s">
         <v>127</v>
@@ -10261,10 +10268,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D6" s="53" t="s">
         <v>128</v>
@@ -10278,10 +10285,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>129</v>
@@ -10293,10 +10300,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D8" s="53" t="s">
         <v>130</v>
@@ -10308,10 +10315,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D9" s="53" t="s">
         <v>131</v>
@@ -10325,10 +10332,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D10" s="53" t="s">
         <v>133</v>
@@ -10342,10 +10349,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D11" s="53" t="s">
         <v>135</v>
@@ -10359,13 +10366,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E12" s="53" t="s">
         <v>4</v>
@@ -10376,13 +10383,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E13" s="53"/>
     </row>
@@ -10391,13 +10398,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E14" s="53" t="s">
         <v>127</v>
@@ -10408,10 +10415,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D15" s="53" t="s">
         <v>136</v>
@@ -10425,10 +10432,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D16" s="53" t="s">
         <v>137</v>
@@ -10442,10 +10449,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D17" s="53" t="s">
         <v>139</v>
@@ -10457,10 +10464,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D18" s="53" t="s">
         <v>140</v>
@@ -10474,16 +10481,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D19" s="53" t="s">
         <v>141</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10491,10 +10498,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D20" s="53" t="s">
         <v>142</v>
@@ -10508,10 +10515,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
@@ -10521,10 +10528,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D22" s="53" t="s">
         <v>143</v>
@@ -10536,13 +10543,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E23" s="53" t="s">
         <v>4</v>
@@ -10553,10 +10560,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D24" s="53" t="s">
         <v>144</v>
@@ -10570,13 +10577,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E25" s="53" t="s">
         <v>4</v>
@@ -10587,13 +10594,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E26" s="53"/>
     </row>
@@ -10602,10 +10609,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D27" s="53"/>
       <c r="E27" s="53"/>
@@ -10615,13 +10622,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E28" s="53"/>
     </row>
@@ -10630,13 +10637,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="53" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D29" s="53" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E29" s="53" t="s">
         <v>4</v>
@@ -10647,10 +10654,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D30" s="53" t="s">
         <v>145</v>
@@ -10664,10 +10671,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="67" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D31" s="53" t="s">
         <v>147</v>
@@ -10679,10 +10686,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="53" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D32" s="53" t="s">
         <v>148</v>
@@ -10696,16 +10703,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="67" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10713,16 +10720,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="68" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E34" s="68" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10738,9 +10745,9 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- 4 -</oddFooter>
+    <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- 5 -</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -10752,7 +10759,7 @@
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -10774,13 +10781,13 @@
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="35"/>
       <c r="B2" s="35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>0</v>
@@ -10791,16 +10798,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E3" s="69" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10808,16 +10815,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D4" s="69" t="s">
         <v>150</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10825,10 +10832,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D5" s="69" t="s">
         <v>151</v>
@@ -10842,10 +10849,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D6" s="69" t="s">
         <v>152</v>
@@ -10857,13 +10864,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E7" s="69" t="s">
         <v>4</v>
@@ -10874,10 +10881,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D8" s="69" t="s">
         <v>153</v>
@@ -10889,16 +10896,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D9" s="69" t="s">
         <v>154</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10906,16 +10913,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10923,10 +10930,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D11" s="69" t="s">
         <v>155</v>
@@ -10940,16 +10947,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D12" s="69" t="s">
         <v>157</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10957,16 +10964,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D13" s="69" t="s">
         <v>158</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10974,10 +10981,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D14" s="69" t="s">
         <v>159</v>
@@ -10989,13 +10996,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>937</v>
-      </c>
-      <c r="D15" s="107" t="s">
-        <v>938</v>
+        <v>934</v>
+      </c>
+      <c r="D15" s="98" t="s">
+        <v>935</v>
       </c>
       <c r="E15" s="69"/>
     </row>
@@ -11004,16 +11011,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11021,10 +11028,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D17" s="69" t="s">
         <v>160</v>
@@ -11038,13 +11045,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E18" s="90"/>
     </row>
@@ -11054,9 +11061,9 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- 5 -</oddFooter>
+    <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- 6 -</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -11068,8 +11075,8 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView view="pageLayout" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11084,7 +11091,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="48" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11093,10 +11100,10 @@
         <v>260</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E2" s="49" t="s">
         <v>0</v>
@@ -11107,13 +11114,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>876</v>
-      </c>
-      <c r="D3" s="105" t="s">
-        <v>877</v>
+        <v>873</v>
+      </c>
+      <c r="D3" s="96" t="s">
+        <v>874</v>
       </c>
       <c r="E3" s="58"/>
     </row>
@@ -11122,13 +11129,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" s="53"/>
     </row>
@@ -11137,13 +11144,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>651</v>
-      </c>
-      <c r="D5" s="106" t="s">
-        <v>880</v>
+        <v>648</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>877</v>
       </c>
       <c r="E5" s="53"/>
     </row>
@@ -11152,13 +11159,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E6" s="53"/>
     </row>
@@ -11167,13 +11174,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E7" s="53"/>
     </row>
@@ -11182,13 +11189,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E8" s="53"/>
     </row>
@@ -11197,13 +11204,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E9" s="53"/>
     </row>
@@ -11212,13 +11219,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>878</v>
-      </c>
-      <c r="D10" s="106" t="s">
-        <v>892</v>
+        <v>875</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>889</v>
       </c>
       <c r="E10" s="58"/>
     </row>
@@ -11227,13 +11234,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>656</v>
-      </c>
-      <c r="D11" s="106" t="s">
-        <v>351</v>
+        <v>653</v>
+      </c>
+      <c r="D11" s="97" t="s">
+        <v>349</v>
       </c>
       <c r="E11" s="53"/>
     </row>
@@ -11242,13 +11249,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E12" s="53"/>
     </row>
@@ -11257,10 +11264,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="53"/>
@@ -11270,13 +11277,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E14" s="53"/>
     </row>
@@ -11285,22 +11292,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E15" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- 6 -</oddFooter>
+    <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- 7 -</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -11312,7 +11319,7 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="B27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -11337,10 +11344,10 @@
         <v>260</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E2" s="49" t="s">
         <v>0</v>
@@ -11351,13 +11358,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E3" s="53"/>
     </row>
@@ -11366,10 +11373,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D4" s="53" t="s">
         <v>162</v>
@@ -11381,10 +11388,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>163</v>
@@ -11398,16 +11405,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11415,13 +11422,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E7" s="53" t="s">
         <v>138</v>
@@ -11432,10 +11439,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D8" s="53" t="s">
         <v>164</v>
@@ -11447,10 +11454,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D9" s="53" t="s">
         <v>165</v>
@@ -11462,13 +11469,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E10" s="60"/>
     </row>
@@ -11477,13 +11484,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E11" s="60"/>
     </row>
@@ -11492,10 +11499,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D12" s="53" t="s">
         <v>167</v>
@@ -11509,13 +11516,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E13" s="53" t="s">
         <v>4</v>
@@ -11526,16 +11533,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>168</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11543,13 +11550,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E15" s="53" t="s">
         <v>166</v>
@@ -11560,10 +11567,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D16" s="53" t="s">
         <v>169</v>
@@ -11575,10 +11582,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D17" s="53" t="s">
         <v>170</v>
@@ -11592,16 +11599,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11609,13 +11616,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E19" s="58"/>
     </row>
@@ -11624,16 +11631,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11641,13 +11648,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E21" s="58"/>
     </row>
@@ -11660,9 +11667,9 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- 7 -</oddFooter>
+    <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- 8 -</oddFooter>
   </headerFooter>
 </worksheet>
 </file>